--- a/biology/Écologie/Indo-Burma/Indo-Burma.xlsx
+++ b/biology/Écologie/Indo-Burma/Indo-Burma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Indo-Burma est un ensemble biogéographique défini par Conservation International comme un point chaud de biodiversité, situé dans l’écozone indomalaise. 
 Il correspond approximativement aux territoires de la Birmanie, du Laos, de la Thaïlande, du Cambodge, du Viêt Nam, débordant sur la Chine (province du Yunan) et l’Inde (partie orientale du pays et îles Andaman).
